--- a/01 Datasets/02_processed_data/ses_pd.xlsx
+++ b/01 Datasets/02_processed_data/ses_pd.xlsx
@@ -407,19 +407,19 @@
         <v>1047.817274</v>
       </c>
       <c r="C2">
-        <v>1058.854371926259</v>
+        <v>1066.256621212505</v>
       </c>
       <c r="D2">
-        <v>97.90156385877823</v>
+        <v>101.5777451373547</v>
       </c>
       <c r="E2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F2">
-        <v>-0.1127366866394491</v>
+        <v>-0.181529400830579</v>
       </c>
       <c r="G2">
-        <v>0.433</v>
+        <v>0.422</v>
       </c>
       <c r="H2">
         <v>999</v>
@@ -433,19 +433,19 @@
         <v>806.9595850000001</v>
       </c>
       <c r="C3">
-        <v>996.8116019602595</v>
+        <v>991.8695139757968</v>
       </c>
       <c r="D3">
-        <v>97.29538518338657</v>
+        <v>97.73867575869014</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>-1.951295188383479</v>
+        <v>-1.891880850036543</v>
       </c>
       <c r="G3">
-        <v>0.029</v>
+        <v>0.036</v>
       </c>
       <c r="H3">
         <v>999</v>
@@ -459,19 +459,19 @@
         <v>1056.42802</v>
       </c>
       <c r="C4">
-        <v>1200.6956464142</v>
+        <v>1206.114288187974</v>
       </c>
       <c r="D4">
-        <v>106.3944863214248</v>
+        <v>107.0377149695744</v>
       </c>
       <c r="E4">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F4">
-        <v>-1.355969011198168</v>
+        <v>-1.398444167371495</v>
       </c>
       <c r="G4">
-        <v>0.082</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H4">
         <v>999</v>
@@ -485,19 +485,19 @@
         <v>803.9633080000002</v>
       </c>
       <c r="C5">
-        <v>997.8171723566719</v>
+        <v>995.9554363886647</v>
       </c>
       <c r="D5">
-        <v>95.17506006212292</v>
+        <v>99.3948601847693</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>-2.03681368028703</v>
+        <v>-1.931610226441913</v>
       </c>
       <c r="G5">
-        <v>0.031</v>
+        <v>0.04</v>
       </c>
       <c r="H5">
         <v>999</v>
@@ -511,19 +511,19 @@
         <v>984.0948920000004</v>
       </c>
       <c r="C6">
-        <v>1201.073205401756</v>
+        <v>1200.127034882722</v>
       </c>
       <c r="D6">
-        <v>110.1285524239361</v>
+        <v>103.6873440818279</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>-1.97022759880203</v>
+        <v>-2.083495770826505</v>
       </c>
       <c r="G6">
-        <v>0.032</v>
+        <v>0.016</v>
       </c>
       <c r="H6">
         <v>999</v>
@@ -537,19 +537,19 @@
         <v>950.0878060000002</v>
       </c>
       <c r="C7">
-        <v>1061.521803830646</v>
+        <v>1063.999893306637</v>
       </c>
       <c r="D7">
-        <v>99.18723960523936</v>
+        <v>99.26645535492446</v>
       </c>
       <c r="E7">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F7">
-        <v>-1.123471106506725</v>
+        <v>-1.147538580876568</v>
       </c>
       <c r="G7">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="H7">
         <v>999</v>
@@ -563,19 +563,19 @@
         <v>967.4241980000004</v>
       </c>
       <c r="C8">
-        <v>1137.306335710506</v>
+        <v>1133.687352119914</v>
       </c>
       <c r="D8">
-        <v>105.1304768019531</v>
+        <v>101.6762813417867</v>
       </c>
       <c r="E8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F8">
-        <v>-1.615917123923378</v>
+        <v>-1.635220642669033</v>
       </c>
       <c r="G8">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="H8">
         <v>999</v>
@@ -589,19 +589,19 @@
         <v>793.850357</v>
       </c>
       <c r="C9">
-        <v>923.6533171254717</v>
+        <v>917.3286626909838</v>
       </c>
       <c r="D9">
-        <v>91.58047174672463</v>
+        <v>96.10677311606625</v>
       </c>
       <c r="E9">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F9">
-        <v>-1.417365052283803</v>
+        <v>-1.28480336699955</v>
       </c>
       <c r="G9">
-        <v>0.098</v>
+        <v>0.093</v>
       </c>
       <c r="H9">
         <v>999</v>
@@ -615,19 +615,19 @@
         <v>768.1634729968002</v>
       </c>
       <c r="C10">
-        <v>923.2125016514651</v>
+        <v>924.9159572981177</v>
       </c>
       <c r="D10">
-        <v>90.59832657450265</v>
+        <v>92.3081496148093</v>
       </c>
       <c r="E10">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>-1.711389542357185</v>
+        <v>-1.698143500388932</v>
       </c>
       <c r="G10">
-        <v>0.054</v>
+        <v>0.047</v>
       </c>
       <c r="H10">
         <v>999</v>
@@ -641,19 +641,19 @@
         <v>838.2954029968</v>
       </c>
       <c r="C11">
-        <v>1059.746244209126</v>
+        <v>1065.350937185986</v>
       </c>
       <c r="D11">
-        <v>100.5751697479988</v>
+        <v>99.7034229111037</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>-2.201844071128027</v>
+        <v>-2.277309319577029</v>
       </c>
       <c r="G11">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="H11">
         <v>999</v>
@@ -667,16 +667,16 @@
         <v>911.7283789968002</v>
       </c>
       <c r="C12">
-        <v>1067.776454137048</v>
+        <v>1066.470237197077</v>
       </c>
       <c r="D12">
-        <v>101.0292042552761</v>
+        <v>100.8762022142892</v>
       </c>
       <c r="E12">
         <v>69</v>
       </c>
       <c r="F12">
-        <v>-1.544583828909044</v>
+        <v>-1.533977834252344</v>
       </c>
       <c r="G12">
         <v>0.06900000000000001</v>
@@ -693,19 +693,19 @@
         <v>918.3120089968002</v>
       </c>
       <c r="C13">
-        <v>992.8619111830777</v>
+        <v>992.7995373111554</v>
       </c>
       <c r="D13">
-        <v>96.72382710636838</v>
+        <v>98.03474117592017</v>
       </c>
       <c r="E13">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F13">
-        <v>-0.7707501286554153</v>
+        <v>-0.7598074664234568</v>
       </c>
       <c r="G13">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
       <c r="H13">
         <v>999</v>
@@ -719,19 +719,19 @@
         <v>959.5361610000002</v>
       </c>
       <c r="C14">
-        <v>994.6515889823144</v>
+        <v>988.8681058627012</v>
       </c>
       <c r="D14">
-        <v>93.80736652146311</v>
+        <v>99.13940596865167</v>
       </c>
       <c r="E14">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="F14">
-        <v>-0.3743355056692668</v>
+        <v>-0.2958656507582453</v>
       </c>
       <c r="G14">
-        <v>0.338</v>
+        <v>0.375</v>
       </c>
       <c r="H14">
         <v>999</v>
@@ -745,19 +745,19 @@
         <v>856.1440089968002</v>
       </c>
       <c r="C15">
-        <v>919.3174250664217</v>
+        <v>926.0578754547533</v>
       </c>
       <c r="D15">
-        <v>91.59217589610607</v>
+        <v>88.80864028664114</v>
       </c>
       <c r="E15">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F15">
-        <v>-0.6897250278373102</v>
+        <v>-0.7872417169353942</v>
       </c>
       <c r="G15">
-        <v>0.239</v>
+        <v>0.218</v>
       </c>
       <c r="H15">
         <v>999</v>
@@ -771,19 +771,19 @@
         <v>484.9850659968</v>
       </c>
       <c r="C16">
-        <v>521.6454222931759</v>
+        <v>518.4730386300264</v>
       </c>
       <c r="D16">
-        <v>62.8401451844036</v>
+        <v>62.69000632665945</v>
       </c>
       <c r="E16">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F16">
-        <v>-0.5833907001455286</v>
+        <v>-0.5341835899446279</v>
       </c>
       <c r="G16">
-        <v>0.282</v>
+        <v>0.265</v>
       </c>
       <c r="H16">
         <v>999</v>
@@ -797,19 +797,19 @@
         <v>658.3028609968</v>
       </c>
       <c r="C17">
-        <v>689.4568311800421</v>
+        <v>686.4202765058354</v>
       </c>
       <c r="D17">
-        <v>76.85616501593114</v>
+        <v>76.71212833274154</v>
       </c>
       <c r="E17">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="F17">
-        <v>-0.4053542116860027</v>
+        <v>-0.366531552704094</v>
       </c>
       <c r="G17">
-        <v>0.326</v>
+        <v>0.345</v>
       </c>
       <c r="H17">
         <v>999</v>
@@ -823,19 +823,19 @@
         <v>643.0802029968</v>
       </c>
       <c r="C18">
-        <v>770.6362739557908</v>
+        <v>768.6779602290601</v>
       </c>
       <c r="D18">
-        <v>82.69152903534111</v>
+        <v>81.98042722689357</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F18">
-        <v>-1.54255305769561</v>
+        <v>-1.532045653832088</v>
       </c>
       <c r="G18">
-        <v>0.074</v>
+        <v>0.065</v>
       </c>
       <c r="H18">
         <v>999</v>
@@ -849,19 +849,19 @@
         <v>647.4545759968</v>
       </c>
       <c r="C19">
-        <v>607.9160398061653</v>
+        <v>602.9581476409829</v>
       </c>
       <c r="D19">
-        <v>68.1265818289956</v>
+        <v>71.50913735896079</v>
       </c>
       <c r="E19">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="F19">
-        <v>0.5803687067388817</v>
+        <v>0.6222481489666757</v>
       </c>
       <c r="G19">
-        <v>0.694</v>
+        <v>0.702</v>
       </c>
       <c r="H19">
         <v>999</v>
@@ -875,19 +875,19 @@
         <v>247.468474</v>
       </c>
       <c r="C20">
-        <v>220.3576588227584</v>
+        <v>219.9915185254853</v>
       </c>
       <c r="D20">
-        <v>50.26272147057458</v>
+        <v>50.19842608792625</v>
       </c>
       <c r="E20">
-        <v>899.5</v>
+        <v>895.5</v>
       </c>
       <c r="F20">
-        <v>0.5393821580694385</v>
+        <v>0.5473668721482774</v>
       </c>
       <c r="G20">
-        <v>0.8995</v>
+        <v>0.8955</v>
       </c>
       <c r="H20">
         <v>999</v>
@@ -901,19 +901,19 @@
         <v>790.0737679968001</v>
       </c>
       <c r="C21">
-        <v>768.768918810651</v>
+        <v>766.2491277340692</v>
       </c>
       <c r="D21">
-        <v>83.57216704982407</v>
+        <v>82.47268619455426</v>
       </c>
       <c r="E21">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F21">
-        <v>0.2549275666556257</v>
+        <v>0.2888791594168307</v>
       </c>
       <c r="G21">
-        <v>0.577</v>
+        <v>0.574</v>
       </c>
       <c r="H21">
         <v>999</v>
@@ -927,19 +927,19 @@
         <v>665.7547670000001</v>
       </c>
       <c r="C22">
-        <v>921.3842199673405</v>
+        <v>916.8515857160663</v>
       </c>
       <c r="D22">
-        <v>94.13953141377216</v>
+        <v>92.51120150685078</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>-2.715431542183596</v>
+        <v>-2.714231516033997</v>
       </c>
       <c r="G22">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="H22">
         <v>999</v>
@@ -953,19 +953,19 @@
         <v>572.8374840000002</v>
       </c>
       <c r="C23">
-        <v>689.1674619197918</v>
+        <v>687.4293268141781</v>
       </c>
       <c r="D23">
-        <v>75.10044630634339</v>
+        <v>77.15265376948598</v>
       </c>
       <c r="E23">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23">
-        <v>-1.548991832155939</v>
+        <v>-1.485261196025109</v>
       </c>
       <c r="G23">
-        <v>0.074</v>
+        <v>0.076</v>
       </c>
       <c r="H23">
         <v>999</v>
@@ -979,19 +979,19 @@
         <v>1010.267798</v>
       </c>
       <c r="C24">
-        <v>922.4740601354489</v>
+        <v>916.7270326189717</v>
       </c>
       <c r="D24">
-        <v>92.39017767055935</v>
+        <v>91.77328279120501</v>
       </c>
       <c r="E24">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="F24">
-        <v>0.9502496918839392</v>
+        <v>1.019259228133364</v>
       </c>
       <c r="G24">
-        <v>0.826</v>
+        <v>0.843</v>
       </c>
       <c r="H24">
         <v>999</v>
@@ -1005,19 +1005,19 @@
         <v>1015.368419</v>
       </c>
       <c r="C25">
-        <v>993.5920296670118</v>
+        <v>993.9046677145524</v>
       </c>
       <c r="D25">
-        <v>95.76973594912167</v>
+        <v>92.54658209078046</v>
       </c>
       <c r="E25">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F25">
-        <v>0.2273827855655516</v>
+        <v>0.2319237599114568</v>
       </c>
       <c r="G25">
-        <v>0.588</v>
+        <v>0.576</v>
       </c>
       <c r="H25">
         <v>999</v>
@@ -1031,19 +1031,19 @@
         <v>418.0425550000001</v>
       </c>
       <c r="C26">
-        <v>428.6868822822121</v>
+        <v>428.1921224673592</v>
       </c>
       <c r="D26">
-        <v>56.36166771337322</v>
+        <v>55.15684025809485</v>
       </c>
       <c r="E26">
-        <v>394</v>
+        <v>394.5</v>
       </c>
       <c r="F26">
-        <v>-0.1888575642641309</v>
+        <v>-0.1840128517127951</v>
       </c>
       <c r="G26">
-        <v>0.394</v>
+        <v>0.3945</v>
       </c>
       <c r="H26">
         <v>999</v>
@@ -1057,16 +1057,16 @@
         <v>499.1351739968001</v>
       </c>
       <c r="C27">
-        <v>606.6645286620347</v>
+        <v>603.4754399843573</v>
       </c>
       <c r="D27">
-        <v>70.27904536947911</v>
+        <v>69.45964387537049</v>
       </c>
       <c r="E27">
         <v>74</v>
       </c>
       <c r="F27">
-        <v>-1.530034366572838</v>
+        <v>-1.502171047331773</v>
       </c>
       <c r="G27">
         <v>0.074</v>
@@ -1083,19 +1083,19 @@
         <v>550.0618559968002</v>
       </c>
       <c r="C28">
-        <v>607.3631645814826</v>
+        <v>603.2536869813769</v>
       </c>
       <c r="D28">
-        <v>66.422419860559</v>
+        <v>70.51418033520088</v>
       </c>
       <c r="E28">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F28">
-        <v>-0.8626802321411259</v>
+        <v>-0.7543423284752151</v>
       </c>
       <c r="G28">
-        <v>0.197</v>
+        <v>0.211</v>
       </c>
       <c r="H28">
         <v>999</v>
@@ -1109,19 +1109,19 @@
         <v>840.1227900000001</v>
       </c>
       <c r="C29">
-        <v>994.2712661124405</v>
+        <v>991.6618202801581</v>
       </c>
       <c r="D29">
-        <v>93.72409792485702</v>
+        <v>95.60659872824488</v>
       </c>
       <c r="E29">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F29">
-        <v>-1.6447048253911</v>
+        <v>-1.585026894544142</v>
       </c>
       <c r="G29">
-        <v>0.056</v>
+        <v>0.073</v>
       </c>
       <c r="H29">
         <v>999</v>
@@ -1135,19 +1135,19 @@
         <v>679.6595069968001</v>
       </c>
       <c r="C30">
-        <v>763.9190388261711</v>
+        <v>767.3859213307029</v>
       </c>
       <c r="D30">
-        <v>79.95240005238254</v>
+        <v>81.80949895394066</v>
       </c>
       <c r="E30">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F30">
-        <v>-1.053871200541404</v>
+        <v>-1.072325530111037</v>
       </c>
       <c r="G30">
-        <v>0.14</v>
+        <v>0.151</v>
       </c>
       <c r="H30">
         <v>999</v>
@@ -1161,19 +1161,19 @@
         <v>915.5877109968001</v>
       </c>
       <c r="C31">
-        <v>988.8403393210991</v>
+        <v>991.6549287906639</v>
       </c>
       <c r="D31">
-        <v>98.98381080610069</v>
+        <v>91.80574582154412</v>
       </c>
       <c r="E31">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="F31">
-        <v>-0.7400465563787352</v>
+        <v>-0.828567069666059</v>
       </c>
       <c r="G31">
-        <v>0.231</v>
+        <v>0.192</v>
       </c>
       <c r="H31">
         <v>999</v>
@@ -1187,19 +1187,19 @@
         <v>806.3256829968002</v>
       </c>
       <c r="C32">
-        <v>841.6883942641253</v>
+        <v>845.3622069808224</v>
       </c>
       <c r="D32">
-        <v>84.974923968722</v>
+        <v>85.19831104179185</v>
       </c>
       <c r="E32">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F32">
-        <v>-0.4161546679387632</v>
+        <v>-0.4581842469256678</v>
       </c>
       <c r="G32">
-        <v>0.318</v>
+        <v>0.312</v>
       </c>
       <c r="H32">
         <v>999</v>
@@ -1213,19 +1213,19 @@
         <v>830.8266709968001</v>
       </c>
       <c r="C33">
-        <v>763.3555952921055</v>
+        <v>767.321251539866</v>
       </c>
       <c r="D33">
-        <v>82.19278640939746</v>
+        <v>80.90869959767487</v>
       </c>
       <c r="E33">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F33">
-        <v>0.8208880444644514</v>
+        <v>0.7849022388534234</v>
       </c>
       <c r="G33">
-        <v>0.781</v>
+        <v>0.773</v>
       </c>
       <c r="H33">
         <v>999</v>
@@ -1239,19 +1239,19 @@
         <v>60.13516399999996</v>
       </c>
       <c r="C34">
-        <v>331.2353112271408</v>
+        <v>331.0526158587815</v>
       </c>
       <c r="D34">
-        <v>47.71169726081953</v>
+        <v>49.35928125515143</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>-5.682047858099699</v>
+        <v>-5.48868307985151</v>
       </c>
       <c r="G34">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H34">
         <v>999</v>
@@ -1265,19 +1265,19 @@
         <v>396.783601</v>
       </c>
       <c r="C35">
-        <v>516.8789616560306</v>
+        <v>520.1159361635725</v>
       </c>
       <c r="D35">
-        <v>60.98147000731285</v>
+        <v>62.09348351801193</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>-1.969374641864633</v>
+        <v>-1.986236367746973</v>
       </c>
       <c r="G35">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="H35">
         <v>999</v>
@@ -1291,19 +1291,19 @@
         <v>514.1835719968001</v>
       </c>
       <c r="C36">
-        <v>609.7606449883212</v>
+        <v>604.3752911269635</v>
       </c>
       <c r="D36">
-        <v>68.21320705262028</v>
+        <v>69.4206662465651</v>
       </c>
       <c r="E36">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="F36">
-        <v>-1.401152022038667</v>
+        <v>-1.29920561133517</v>
       </c>
       <c r="G36">
-        <v>0.082</v>
+        <v>0.119</v>
       </c>
       <c r="H36">
         <v>999</v>
@@ -1317,19 +1317,19 @@
         <v>426.2745719968</v>
       </c>
       <c r="C37">
-        <v>520.7861561790418</v>
+        <v>523.4032437345872</v>
       </c>
       <c r="D37">
-        <v>59.18373314594722</v>
+        <v>59.31561272540603</v>
       </c>
       <c r="E37">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F37">
-        <v>-1.596918260447951</v>
+        <v>-1.637489141137797</v>
       </c>
       <c r="G37">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H37">
         <v>999</v>
@@ -1343,19 +1343,19 @@
         <v>550.5478719998001</v>
       </c>
       <c r="C38">
-        <v>689.2361365303769</v>
+        <v>688.4894327005239</v>
       </c>
       <c r="D38">
-        <v>77.35670215556898</v>
+        <v>71.66617760060068</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F38">
-        <v>-1.792840964854815</v>
+        <v>-1.924779098300446</v>
       </c>
       <c r="G38">
-        <v>0.05</v>
+        <v>0.039</v>
       </c>
       <c r="H38">
         <v>999</v>
@@ -1369,19 +1369,19 @@
         <v>1048.2654759968</v>
       </c>
       <c r="C39">
-        <v>987.3451090378303</v>
+        <v>989.6549247751047</v>
       </c>
       <c r="D39">
-        <v>98.72494578775461</v>
+        <v>94.87486546624883</v>
       </c>
       <c r="E39">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="F39">
-        <v>0.6170716678836221</v>
+        <v>0.6177668967820125</v>
       </c>
       <c r="G39">
-        <v>0.721</v>
+        <v>0.728</v>
       </c>
       <c r="H39">
         <v>999</v>
@@ -1395,19 +1395,19 @@
         <v>1188.141712000001</v>
       </c>
       <c r="C40">
-        <v>1130.727708503338</v>
+        <v>1135.346084881171</v>
       </c>
       <c r="D40">
-        <v>101.9269995899273</v>
+        <v>103.4711879215363</v>
       </c>
       <c r="E40">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="F40">
-        <v>0.5632855252057931</v>
+        <v>0.5102447181612021</v>
       </c>
       <c r="G40">
-        <v>0.71</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H40">
         <v>999</v>
@@ -1421,19 +1421,19 @@
         <v>912.4200149998003</v>
       </c>
       <c r="C41">
-        <v>1067.751584516413</v>
+        <v>1063.286712265659</v>
       </c>
       <c r="D41">
-        <v>100.6796098393793</v>
+        <v>102.1821348077762</v>
       </c>
       <c r="E41">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F41">
-        <v>-1.542830467504028</v>
+        <v>-1.476448867991139</v>
       </c>
       <c r="G41">
-        <v>0.076</v>
+        <v>0.079</v>
       </c>
       <c r="H41">
         <v>999</v>
@@ -1447,19 +1447,19 @@
         <v>1146.180461003</v>
       </c>
       <c r="C42">
-        <v>1264.318959348701</v>
+        <v>1265.565402167544</v>
       </c>
       <c r="D42">
-        <v>110.3362591317256</v>
+        <v>107.7776159516773</v>
       </c>
       <c r="E42">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F42">
-        <v>-1.070713283877605</v>
+        <v>-1.107696993576759</v>
       </c>
       <c r="G42">
-        <v>0.144</v>
+        <v>0.147</v>
       </c>
       <c r="H42">
         <v>999</v>
@@ -1473,19 +1473,19 @@
         <v>745.1104030000002</v>
       </c>
       <c r="C43">
-        <v>766.2847966043918</v>
+        <v>770.9882906874444</v>
       </c>
       <c r="D43">
-        <v>81.46710748460417</v>
+        <v>77.78020399409679</v>
       </c>
       <c r="E43">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="F43">
-        <v>-0.2599134087139783</v>
+        <v>-0.3327053203589977</v>
       </c>
       <c r="G43">
-        <v>0.367</v>
+        <v>0.342</v>
       </c>
       <c r="H43">
         <v>999</v>
@@ -1499,19 +1499,19 @@
         <v>759.9593490000003</v>
       </c>
       <c r="C44">
-        <v>918.4671626514889</v>
+        <v>921.4735632675648</v>
       </c>
       <c r="D44">
-        <v>91.59032596103751</v>
+        <v>89.47621803918638</v>
       </c>
       <c r="E44">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>-1.730617420434968</v>
+        <v>-1.805107746025082</v>
       </c>
       <c r="G44">
-        <v>0.052</v>
+        <v>0.041</v>
       </c>
       <c r="H44">
         <v>999</v>
@@ -1525,19 +1525,19 @@
         <v>688.6502000000003</v>
       </c>
       <c r="C45">
-        <v>765.0069757610574</v>
+        <v>763.466834737592</v>
       </c>
       <c r="D45">
-        <v>81.69895372931914</v>
+        <v>82.23860517785722</v>
       </c>
       <c r="E45">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F45">
-        <v>-0.9346114273879027</v>
+        <v>-0.9097507742961587</v>
       </c>
       <c r="G45">
-        <v>0.188</v>
+        <v>0.176</v>
       </c>
       <c r="H45">
         <v>999</v>
@@ -1551,19 +1551,19 @@
         <v>697.7424920000002</v>
       </c>
       <c r="C46">
-        <v>768.5199815008632</v>
+        <v>766.8492376725023</v>
       </c>
       <c r="D46">
-        <v>80.99089586408215</v>
+        <v>84.56356762072359</v>
       </c>
       <c r="E46">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F46">
-        <v>-0.8738943895575726</v>
+        <v>-0.8172165344590604</v>
       </c>
       <c r="G46">
-        <v>0.187</v>
+        <v>0.207</v>
       </c>
       <c r="H46">
         <v>999</v>
@@ -1577,19 +1577,19 @@
         <v>502.9384130000003</v>
       </c>
       <c r="C47">
-        <v>605.5310505013495</v>
+        <v>609.2141884943388</v>
       </c>
       <c r="D47">
-        <v>69.92259705226323</v>
+        <v>68.99043960160482</v>
       </c>
       <c r="E47">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F47">
-        <v>-1.467231507786631</v>
+        <v>-1.540442068611872</v>
       </c>
       <c r="G47">
-        <v>0.091</v>
+        <v>0.076</v>
       </c>
       <c r="H47">
         <v>999</v>
@@ -1603,19 +1603,19 @@
         <v>592.0694690000003</v>
       </c>
       <c r="C48">
-        <v>913.7635817420966</v>
+        <v>917.995912756636</v>
       </c>
       <c r="D48">
-        <v>89.15953631187317</v>
+        <v>91.48619660962027</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>-3.60807296728008</v>
+        <v>-3.562575075094584</v>
       </c>
       <c r="G48">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H48">
         <v>999</v>
@@ -1629,19 +1629,19 @@
         <v>427.7418160000001</v>
       </c>
       <c r="C49">
-        <v>520.3527356875709</v>
+        <v>520.2914194768756</v>
       </c>
       <c r="D49">
-        <v>63.44423220307907</v>
+        <v>61.74204649731398</v>
       </c>
       <c r="E49">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49">
-        <v>-1.459721655880897</v>
+        <v>-1.498972073769886</v>
       </c>
       <c r="G49">
-        <v>0.08699999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H49">
         <v>999</v>
@@ -1655,19 +1655,19 @@
         <v>781.9543160000007</v>
       </c>
       <c r="C50">
-        <v>1066.16752502089</v>
+        <v>1065.598140296148</v>
       </c>
       <c r="D50">
-        <v>100.2277980121616</v>
+        <v>99.35344556854217</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50">
-        <v>-2.835672484657435</v>
+        <v>-2.854896704115474</v>
       </c>
       <c r="G50">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="H50">
         <v>999</v>
@@ -1681,19 +1681,19 @@
         <v>950.5361730000005</v>
       </c>
       <c r="C51">
-        <v>1134.395228603988</v>
+        <v>1131.072088948846</v>
       </c>
       <c r="D51">
-        <v>103.2997909448877</v>
+        <v>110.8379100737639</v>
       </c>
       <c r="E51">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F51">
-        <v>-1.779858932164534</v>
+        <v>-1.628828221577772</v>
       </c>
       <c r="G51">
-        <v>0.044</v>
+        <v>0.055</v>
       </c>
       <c r="H51">
         <v>999</v>
@@ -1707,19 +1707,19 @@
         <v>851.1619710000006</v>
       </c>
       <c r="C52">
-        <v>918.0809344683986</v>
+        <v>924.8608016955069</v>
       </c>
       <c r="D52">
-        <v>89.90093725968205</v>
+        <v>93.95445506199732</v>
       </c>
       <c r="E52">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F52">
-        <v>-0.7443633571372035</v>
+        <v>-0.7844101766848097</v>
       </c>
       <c r="G52">
-        <v>0.219</v>
+        <v>0.216</v>
       </c>
       <c r="H52">
         <v>999</v>
@@ -1733,19 +1733,19 @@
         <v>919.8651520000006</v>
       </c>
       <c r="C53">
-        <v>924.8582131479532</v>
+        <v>922.9746176004551</v>
       </c>
       <c r="D53">
-        <v>91.2022697092366</v>
+        <v>93.94423129558353</v>
       </c>
       <c r="E53">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F53">
-        <v>-0.05474711499912199</v>
+        <v>-0.03309905842617298</v>
       </c>
       <c r="G53">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="H53">
         <v>999</v>
@@ -1759,19 +1759,19 @@
         <v>601.2419430000003</v>
       </c>
       <c r="C54">
-        <v>694.3015994553019</v>
+        <v>689.5308002991145</v>
       </c>
       <c r="D54">
-        <v>76.4935578974663</v>
+        <v>76.00050963928115</v>
       </c>
       <c r="E54">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F54">
-        <v>-1.216568545289014</v>
+        <v>-1.161687700755651</v>
       </c>
       <c r="G54">
-        <v>0.12</v>
+        <v>0.129</v>
       </c>
       <c r="H54">
         <v>999</v>
@@ -1785,19 +1785,19 @@
         <v>1412.598898</v>
       </c>
       <c r="C55">
-        <v>1399.738411917818</v>
+        <v>1396.187824062509</v>
       </c>
       <c r="D55">
-        <v>116.5116866413638</v>
+        <v>117.4090918194659</v>
       </c>
       <c r="E55">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="F55">
-        <v>0.1103793658207775</v>
+        <v>0.1397768578495222</v>
       </c>
       <c r="G55">
-        <v>0.528</v>
+        <v>0.548</v>
       </c>
       <c r="H55">
         <v>999</v>
@@ -1811,19 +1811,19 @@
         <v>1061.298614</v>
       </c>
       <c r="C56">
-        <v>988.9964897651024</v>
+        <v>994.244638710469</v>
       </c>
       <c r="D56">
-        <v>95.14682365782166</v>
+        <v>91.21319548121697</v>
       </c>
       <c r="E56">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="F56">
-        <v>0.7599005563750567</v>
+        <v>0.73513459248711</v>
       </c>
       <c r="G56">
-        <v>0.782</v>
+        <v>0.762</v>
       </c>
       <c r="H56">
         <v>999</v>
@@ -1837,19 +1837,19 @@
         <v>1213.771434</v>
       </c>
       <c r="C57">
-        <v>1200.830031926375</v>
+        <v>1198.18844921609</v>
       </c>
       <c r="D57">
-        <v>108.3297190624838</v>
+        <v>106.707866300805</v>
       </c>
       <c r="E57">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F57">
-        <v>0.1194630816513134</v>
+        <v>0.1460340771877345</v>
       </c>
       <c r="G57">
-        <v>0.543</v>
+        <v>0.547</v>
       </c>
       <c r="H57">
         <v>999</v>
@@ -1863,19 +1863,19 @@
         <v>1060.875734000001</v>
       </c>
       <c r="C58">
-        <v>1058.709804225024</v>
+        <v>1066.861039074877</v>
       </c>
       <c r="D58">
-        <v>98.4011205566742</v>
+        <v>98.88726201427421</v>
       </c>
       <c r="E58">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="F58">
-        <v>0.02201123079415652</v>
+        <v>-0.06052655269202022</v>
       </c>
       <c r="G58">
-        <v>0.5</v>
+        <v>0.458</v>
       </c>
       <c r="H58">
         <v>999</v>
@@ -1889,19 +1889,19 @@
         <v>804.8024500000002</v>
       </c>
       <c r="C59">
-        <v>840.3096892000294</v>
+        <v>842.9792520984427</v>
       </c>
       <c r="D59">
-        <v>88.22741355042459</v>
+        <v>90.88966105313064</v>
       </c>
       <c r="E59">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F59">
-        <v>-0.4024513217735408</v>
+        <v>-0.4200345964116392</v>
       </c>
       <c r="G59">
-        <v>0.322</v>
+        <v>0.314</v>
       </c>
       <c r="H59">
         <v>999</v>
@@ -1915,19 +1915,19 @@
         <v>1112.500415</v>
       </c>
       <c r="C60">
-        <v>1064.968254591948</v>
+        <v>1064.724012052377</v>
       </c>
       <c r="D60">
-        <v>99.11941500657301</v>
+        <v>100.560473284899</v>
       </c>
       <c r="E60">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="F60">
-        <v>0.4795444001046639</v>
+        <v>0.4751012140949965</v>
       </c>
       <c r="G60">
-        <v>0.665</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H60">
         <v>999</v>
@@ -1941,16 +1941,16 @@
         <v>779.9178680000001</v>
       </c>
       <c r="C61">
-        <v>689.5418699698109</v>
+        <v>686.5550793591857</v>
       </c>
       <c r="D61">
-        <v>77.56966810204366</v>
+        <v>74.66692638152853</v>
       </c>
       <c r="E61">
         <v>897</v>
       </c>
       <c r="F61">
-        <v>1.165094556177534</v>
+        <v>1.250390141463101</v>
       </c>
       <c r="G61">
         <v>0.897</v>
@@ -1967,19 +1967,19 @@
         <v>791.8734770000003</v>
       </c>
       <c r="C62">
-        <v>686.4798404292366</v>
+        <v>692.7998262995482</v>
       </c>
       <c r="D62">
-        <v>77.73383056464262</v>
+        <v>76.71727546558135</v>
       </c>
       <c r="E62">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="F62">
-        <v>1.3558271322178</v>
+        <v>1.291412528654003</v>
       </c>
       <c r="G62">
-        <v>0.92</v>
+        <v>0.914</v>
       </c>
       <c r="H62">
         <v>999</v>
@@ -1993,19 +1993,19 @@
         <v>1086.075318</v>
       </c>
       <c r="C63">
-        <v>989.6868174638389</v>
+        <v>997.4371932425887</v>
       </c>
       <c r="D63">
-        <v>99.06530366514843</v>
+        <v>98.56506793359856</v>
       </c>
       <c r="E63">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="F63">
-        <v>0.9729794082291912</v>
+        <v>0.8992853818872757</v>
       </c>
       <c r="G63">
-        <v>0.835</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H63">
         <v>999</v>
@@ -2019,19 +2019,19 @@
         <v>809.7929560000005</v>
       </c>
       <c r="C64">
-        <v>921.7479297740368</v>
+        <v>920.4148125893867</v>
       </c>
       <c r="D64">
-        <v>91.93763870290735</v>
+        <v>91.3777239355898</v>
       </c>
       <c r="E64">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F64">
-        <v>-1.217727313356548</v>
+        <v>-1.210599824825591</v>
       </c>
       <c r="G64">
-        <v>0.117</v>
+        <v>0.12</v>
       </c>
       <c r="H64">
         <v>999</v>
@@ -2045,19 +2045,19 @@
         <v>1203.8889550032</v>
       </c>
       <c r="C65">
-        <v>1137.360301891745</v>
+        <v>1132.294152685993</v>
       </c>
       <c r="D65">
-        <v>104.9727748095806</v>
+        <v>98.51344806296318</v>
       </c>
       <c r="E65">
-        <v>728</v>
+        <v>764</v>
       </c>
       <c r="F65">
-        <v>0.6337705489079168</v>
+        <v>0.7267515626033942</v>
       </c>
       <c r="G65">
-        <v>0.728</v>
+        <v>0.764</v>
       </c>
       <c r="H65">
         <v>999</v>
@@ -2071,19 +2071,19 @@
         <v>299.2201650000001</v>
       </c>
       <c r="C66">
-        <v>425.6805439452862</v>
+        <v>427.560493458325</v>
       </c>
       <c r="D66">
-        <v>57.09996884460548</v>
+        <v>55.28367531850621</v>
       </c>
       <c r="E66">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F66">
-        <v>-2.214718878208869</v>
+        <v>-2.321486907643475</v>
       </c>
       <c r="G66">
-        <v>0.036</v>
+        <v>0.025</v>
       </c>
       <c r="H66">
         <v>999</v>
@@ -2097,19 +2097,19 @@
         <v>887.4738600000003</v>
       </c>
       <c r="C67">
-        <v>843.7252495368442</v>
+        <v>841.3335695888846</v>
       </c>
       <c r="D67">
-        <v>84.38404057075441</v>
+        <v>85.73559161276762</v>
       </c>
       <c r="E67">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="F67">
-        <v>0.5184464996846613</v>
+        <v>0.5381696159456431</v>
       </c>
       <c r="G67">
-        <v>0.66</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H67">
         <v>999</v>
@@ -2123,19 +2123,19 @@
         <v>868.5070169968004</v>
       </c>
       <c r="C68">
-        <v>920.7952783446323</v>
+        <v>918.8859620564239</v>
       </c>
       <c r="D68">
-        <v>91.0345936655989</v>
+        <v>90.25101017972183</v>
       </c>
       <c r="E68">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F68">
-        <v>-0.5743779286795573</v>
+        <v>-0.5582092096177214</v>
       </c>
       <c r="G68">
-        <v>0.27</v>
+        <v>0.295</v>
       </c>
       <c r="H68">
         <v>999</v>
@@ -2149,19 +2149,19 @@
         <v>872.5859619998002</v>
       </c>
       <c r="C69">
-        <v>919.2615306770115</v>
+        <v>923.0698258817133</v>
       </c>
       <c r="D69">
-        <v>93.5090275142524</v>
+        <v>93.57931453124452</v>
       </c>
       <c r="E69">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F69">
-        <v>-0.4991557491077219</v>
+        <v>-0.5394767437098225</v>
       </c>
       <c r="G69">
-        <v>0.307</v>
+        <v>0.292</v>
       </c>
       <c r="H69">
         <v>999</v>
@@ -2175,19 +2175,19 @@
         <v>798.040107</v>
       </c>
       <c r="C70">
-        <v>767.4358172245535</v>
+        <v>768.7686794072577</v>
       </c>
       <c r="D70">
-        <v>81.69693882959382</v>
+        <v>79.03498048932973</v>
       </c>
       <c r="E70">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="F70">
-        <v>0.3746075460585125</v>
+        <v>0.3703604076513213</v>
       </c>
       <c r="G70">
-        <v>0.605</v>
+        <v>0.624</v>
       </c>
       <c r="H70">
         <v>999</v>
@@ -2201,19 +2201,19 @@
         <v>1333.453006000001</v>
       </c>
       <c r="C71">
-        <v>1459.197821471293</v>
+        <v>1462.684472856787</v>
       </c>
       <c r="D71">
-        <v>121.2196760760923</v>
+        <v>118.5493884840219</v>
       </c>
       <c r="E71">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F71">
-        <v>-1.037330073315483</v>
+        <v>-1.090106566633231</v>
       </c>
       <c r="G71">
-        <v>0.148</v>
+        <v>0.142</v>
       </c>
       <c r="H71">
         <v>999</v>
@@ -2227,19 +2227,19 @@
         <v>834.2170230000002</v>
       </c>
       <c r="C72">
-        <v>918.5134060139013</v>
+        <v>914.6856983556901</v>
       </c>
       <c r="D72">
-        <v>94.02182320364879</v>
+        <v>93.22653592412972</v>
       </c>
       <c r="E72">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="F72">
-        <v>-0.8965618846947631</v>
+        <v>-0.8631520474082348</v>
       </c>
       <c r="G72">
-        <v>0.177</v>
+        <v>0.197</v>
       </c>
       <c r="H72">
         <v>999</v>
@@ -2253,19 +2253,19 @@
         <v>1141.005592</v>
       </c>
       <c r="C73">
-        <v>1136.302905864248</v>
+        <v>1133.925229521858</v>
       </c>
       <c r="D73">
-        <v>108.4318996163405</v>
+        <v>106.5866336322977</v>
       </c>
       <c r="E73">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="F73">
-        <v>0.04336995065466406</v>
+        <v>0.06642823998521048</v>
       </c>
       <c r="G73">
-        <v>0.492</v>
+        <v>0.513</v>
       </c>
       <c r="H73">
         <v>999</v>
